--- a/設計書/01_基本設計（外部設計）/03_ユーザインタフェース設計/01_画面設計/★画面一覧.xlsx
+++ b/設計書/01_基本設計（外部設計）/03_ユーザインタフェース設計/01_画面設計/★画面一覧.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="7" r:id="rId1"/>
@@ -12,18 +12,18 @@
     <sheet name="設定情報" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面一覧!$A$1:$AZ$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面一覧!$A$1:$AZ$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$AZ$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">設定情報!$A$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">画面一覧!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
   <si>
     <t>プロジェクト</t>
   </si>
@@ -339,22 +339,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>利用者情報変更画面</t>
-    <rPh sb="0" eb="3">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>申請者</t>
     <rPh sb="0" eb="3">
       <t>シンセイシャ</t>
@@ -434,9 +418,6 @@
     <t>M002</t>
   </si>
   <si>
-    <t>M003</t>
-  </si>
-  <si>
     <t>T001</t>
   </si>
   <si>
@@ -454,11 +435,25 @@
   <si>
     <t>T006</t>
   </si>
+  <si>
+    <t>閲覧者</t>
+    <rPh sb="0" eb="2">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.0&quot;版&quot;\ "/>
@@ -1412,6 +1407,171 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,173 +1584,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1622,12 +1617,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1669,7 +1667,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1702,9 +1700,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1737,6 +1752,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1919,215 +1951,215 @@
   </sheetPr>
   <dimension ref="A1:AZ28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G40" sqref="G40"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.5" style="1"/>
+    <col min="1" max="16384" width="3.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="str">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="123" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="72" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="73" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="127" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="72" t="s">
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="74"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="75" t="s">
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="113"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="76" t="str">
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="115" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="77">
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="116">
         <v>42591</v>
       </c>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="79" t="s">
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="76"/>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="83"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="119"/>
+      <c r="AT2" s="119"/>
+      <c r="AU2" s="119"/>
+      <c r="AV2" s="119"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+      <c r="AZ2" s="121"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="80" t="str">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="86" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="80" t="str">
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="105" t="str">
         <f>設定情報!$C$5</f>
         <v>画面一覧</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="80"/>
-      <c r="AY3" s="80"/>
-      <c r="AZ3" s="84"/>
-    </row>
-    <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="105"/>
+      <c r="AP3" s="105"/>
+      <c r="AQ3" s="105"/>
+      <c r="AR3" s="105"/>
+      <c r="AS3" s="120"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="105"/>
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="122"/>
+    </row>
+    <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2181,7 +2213,7 @@
       <c r="AY4" s="3"/>
       <c r="AZ4" s="7"/>
     </row>
-    <row r="5" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -2237,7 +2269,7 @@
       <c r="AY5" s="10"/>
       <c r="AZ5" s="11"/>
     </row>
-    <row r="6" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2291,1103 +2323,1103 @@
       <c r="AY6" s="10"/>
       <c r="AZ6" s="11"/>
     </row>
-    <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90" t="s">
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="87" t="s">
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="87" t="s">
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="88"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="88"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="88"/>
-      <c r="AI7" s="88"/>
-      <c r="AJ7" s="88"/>
-      <c r="AK7" s="88"/>
-      <c r="AL7" s="88"/>
-      <c r="AM7" s="88"/>
-      <c r="AN7" s="88"/>
-      <c r="AO7" s="88"/>
-      <c r="AP7" s="88"/>
-      <c r="AQ7" s="88"/>
-      <c r="AR7" s="88"/>
-      <c r="AS7" s="88"/>
-      <c r="AT7" s="88"/>
-      <c r="AU7" s="88"/>
-      <c r="AV7" s="88"/>
-      <c r="AW7" s="88"/>
-      <c r="AX7" s="88"/>
-      <c r="AY7" s="89"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="107"/>
+      <c r="AY7" s="108"/>
       <c r="AZ7" s="11"/>
     </row>
-    <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="100"/>
-      <c r="AI8" s="100"/>
-      <c r="AJ8" s="100"/>
-      <c r="AK8" s="100"/>
-      <c r="AL8" s="100"/>
-      <c r="AM8" s="100"/>
-      <c r="AN8" s="100"/>
-      <c r="AO8" s="100"/>
-      <c r="AP8" s="100"/>
-      <c r="AQ8" s="100"/>
-      <c r="AR8" s="100"/>
-      <c r="AS8" s="100"/>
-      <c r="AT8" s="100"/>
-      <c r="AU8" s="100"/>
-      <c r="AV8" s="100"/>
-      <c r="AW8" s="100"/>
-      <c r="AX8" s="100"/>
-      <c r="AY8" s="101"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="99"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="99"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
+      <c r="AQ8" s="99"/>
+      <c r="AR8" s="99"/>
+      <c r="AS8" s="99"/>
+      <c r="AT8" s="99"/>
+      <c r="AU8" s="99"/>
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="99"/>
+      <c r="AX8" s="99"/>
+      <c r="AY8" s="100"/>
       <c r="AZ8" s="12"/>
     </row>
-    <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="B9" s="103">
+      <c r="B9" s="80">
         <v>1</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="106">
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83">
         <v>42591</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="109" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="112" t="s">
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="110"/>
-      <c r="AJ9" s="110"/>
-      <c r="AK9" s="110"/>
-      <c r="AL9" s="110"/>
-      <c r="AM9" s="110"/>
-      <c r="AN9" s="110"/>
-      <c r="AO9" s="110"/>
-      <c r="AP9" s="110"/>
-      <c r="AQ9" s="110"/>
-      <c r="AR9" s="110"/>
-      <c r="AS9" s="110"/>
-      <c r="AT9" s="110"/>
-      <c r="AU9" s="110"/>
-      <c r="AV9" s="110"/>
-      <c r="AW9" s="110"/>
-      <c r="AX9" s="110"/>
-      <c r="AY9" s="111"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="90"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="91"/>
       <c r="AZ9" s="12"/>
     </row>
-    <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="110"/>
-      <c r="AB10" s="110"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="110"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="110"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="110"/>
-      <c r="AI10" s="110"/>
-      <c r="AJ10" s="110"/>
-      <c r="AK10" s="110"/>
-      <c r="AL10" s="110"/>
-      <c r="AM10" s="110"/>
-      <c r="AN10" s="110"/>
-      <c r="AO10" s="110"/>
-      <c r="AP10" s="110"/>
-      <c r="AQ10" s="110"/>
-      <c r="AR10" s="110"/>
-      <c r="AS10" s="110"/>
-      <c r="AT10" s="110"/>
-      <c r="AU10" s="110"/>
-      <c r="AV10" s="110"/>
-      <c r="AW10" s="110"/>
-      <c r="AX10" s="110"/>
-      <c r="AY10" s="111"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="90"/>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="91"/>
       <c r="AZ10" s="12"/>
     </row>
-    <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="110"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="110"/>
-      <c r="AN11" s="110"/>
-      <c r="AO11" s="110"/>
-      <c r="AP11" s="110"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="110"/>
-      <c r="AS11" s="110"/>
-      <c r="AT11" s="110"/>
-      <c r="AU11" s="110"/>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="111"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="90"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="91"/>
       <c r="AZ11" s="12"/>
     </row>
-    <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="110"/>
-      <c r="AI12" s="110"/>
-      <c r="AJ12" s="110"/>
-      <c r="AK12" s="110"/>
-      <c r="AL12" s="110"/>
-      <c r="AM12" s="110"/>
-      <c r="AN12" s="110"/>
-      <c r="AO12" s="110"/>
-      <c r="AP12" s="110"/>
-      <c r="AQ12" s="110"/>
-      <c r="AR12" s="110"/>
-      <c r="AS12" s="110"/>
-      <c r="AT12" s="110"/>
-      <c r="AU12" s="110"/>
-      <c r="AV12" s="110"/>
-      <c r="AW12" s="110"/>
-      <c r="AX12" s="110"/>
-      <c r="AY12" s="111"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="90"/>
+      <c r="AL12" s="90"/>
+      <c r="AM12" s="90"/>
+      <c r="AN12" s="90"/>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90"/>
+      <c r="AV12" s="90"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="91"/>
       <c r="AZ12" s="12"/>
     </row>
-    <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="110"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="110"/>
-      <c r="AG13" s="110"/>
-      <c r="AH13" s="110"/>
-      <c r="AI13" s="110"/>
-      <c r="AJ13" s="110"/>
-      <c r="AK13" s="110"/>
-      <c r="AL13" s="110"/>
-      <c r="AM13" s="110"/>
-      <c r="AN13" s="110"/>
-      <c r="AO13" s="110"/>
-      <c r="AP13" s="110"/>
-      <c r="AQ13" s="110"/>
-      <c r="AR13" s="110"/>
-      <c r="AS13" s="110"/>
-      <c r="AT13" s="110"/>
-      <c r="AU13" s="110"/>
-      <c r="AV13" s="110"/>
-      <c r="AW13" s="110"/>
-      <c r="AX13" s="110"/>
-      <c r="AY13" s="111"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="90"/>
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="90"/>
+      <c r="AL13" s="90"/>
+      <c r="AM13" s="90"/>
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="90"/>
+      <c r="AW13" s="90"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="91"/>
       <c r="AZ13" s="12"/>
     </row>
-    <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="110"/>
-      <c r="AB14" s="110"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="110"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="110"/>
-      <c r="AI14" s="110"/>
-      <c r="AJ14" s="110"/>
-      <c r="AK14" s="110"/>
-      <c r="AL14" s="110"/>
-      <c r="AM14" s="110"/>
-      <c r="AN14" s="110"/>
-      <c r="AO14" s="110"/>
-      <c r="AP14" s="110"/>
-      <c r="AQ14" s="110"/>
-      <c r="AR14" s="110"/>
-      <c r="AS14" s="110"/>
-      <c r="AT14" s="110"/>
-      <c r="AU14" s="110"/>
-      <c r="AV14" s="110"/>
-      <c r="AW14" s="110"/>
-      <c r="AX14" s="110"/>
-      <c r="AY14" s="111"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="90"/>
+      <c r="AL14" s="90"/>
+      <c r="AM14" s="90"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="90"/>
+      <c r="AT14" s="90"/>
+      <c r="AU14" s="90"/>
+      <c r="AV14" s="90"/>
+      <c r="AW14" s="90"/>
+      <c r="AX14" s="90"/>
+      <c r="AY14" s="91"/>
       <c r="AZ14" s="12"/>
     </row>
-    <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="110"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="110"/>
-      <c r="AL15" s="110"/>
-      <c r="AM15" s="110"/>
-      <c r="AN15" s="110"/>
-      <c r="AO15" s="110"/>
-      <c r="AP15" s="110"/>
-      <c r="AQ15" s="110"/>
-      <c r="AR15" s="110"/>
-      <c r="AS15" s="110"/>
-      <c r="AT15" s="110"/>
-      <c r="AU15" s="110"/>
-      <c r="AV15" s="110"/>
-      <c r="AW15" s="110"/>
-      <c r="AX15" s="110"/>
-      <c r="AY15" s="111"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="90"/>
+      <c r="AL15" s="90"/>
+      <c r="AM15" s="90"/>
+      <c r="AN15" s="90"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90"/>
+      <c r="AT15" s="90"/>
+      <c r="AU15" s="90"/>
+      <c r="AV15" s="90"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="90"/>
+      <c r="AY15" s="91"/>
       <c r="AZ15" s="12"/>
     </row>
-    <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="110"/>
-      <c r="AA16" s="110"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="110"/>
-      <c r="AI16" s="110"/>
-      <c r="AJ16" s="110"/>
-      <c r="AK16" s="110"/>
-      <c r="AL16" s="110"/>
-      <c r="AM16" s="110"/>
-      <c r="AN16" s="110"/>
-      <c r="AO16" s="110"/>
-      <c r="AP16" s="110"/>
-      <c r="AQ16" s="110"/>
-      <c r="AR16" s="110"/>
-      <c r="AS16" s="110"/>
-      <c r="AT16" s="110"/>
-      <c r="AU16" s="110"/>
-      <c r="AV16" s="110"/>
-      <c r="AW16" s="110"/>
-      <c r="AX16" s="110"/>
-      <c r="AY16" s="111"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="90"/>
+      <c r="AK16" s="90"/>
+      <c r="AL16" s="90"/>
+      <c r="AM16" s="90"/>
+      <c r="AN16" s="90"/>
+      <c r="AO16" s="90"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="90"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="90"/>
+      <c r="AT16" s="90"/>
+      <c r="AU16" s="90"/>
+      <c r="AV16" s="90"/>
+      <c r="AW16" s="90"/>
+      <c r="AX16" s="90"/>
+      <c r="AY16" s="91"/>
       <c r="AZ16" s="12"/>
     </row>
-    <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="110"/>
-      <c r="AJ17" s="110"/>
-      <c r="AK17" s="110"/>
-      <c r="AL17" s="110"/>
-      <c r="AM17" s="110"/>
-      <c r="AN17" s="110"/>
-      <c r="AO17" s="110"/>
-      <c r="AP17" s="110"/>
-      <c r="AQ17" s="110"/>
-      <c r="AR17" s="110"/>
-      <c r="AS17" s="110"/>
-      <c r="AT17" s="110"/>
-      <c r="AU17" s="110"/>
-      <c r="AV17" s="110"/>
-      <c r="AW17" s="110"/>
-      <c r="AX17" s="110"/>
-      <c r="AY17" s="111"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="90"/>
+      <c r="AJ17" s="90"/>
+      <c r="AK17" s="90"/>
+      <c r="AL17" s="90"/>
+      <c r="AM17" s="90"/>
+      <c r="AN17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="90"/>
+      <c r="AT17" s="90"/>
+      <c r="AU17" s="90"/>
+      <c r="AV17" s="90"/>
+      <c r="AW17" s="90"/>
+      <c r="AX17" s="90"/>
+      <c r="AY17" s="91"/>
       <c r="AZ17" s="12"/>
     </row>
-    <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="110"/>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="110"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="110"/>
-      <c r="AL18" s="110"/>
-      <c r="AM18" s="110"/>
-      <c r="AN18" s="110"/>
-      <c r="AO18" s="110"/>
-      <c r="AP18" s="110"/>
-      <c r="AQ18" s="110"/>
-      <c r="AR18" s="110"/>
-      <c r="AS18" s="110"/>
-      <c r="AT18" s="110"/>
-      <c r="AU18" s="110"/>
-      <c r="AV18" s="110"/>
-      <c r="AW18" s="110"/>
-      <c r="AX18" s="110"/>
-      <c r="AY18" s="111"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="90"/>
+      <c r="AK18" s="90"/>
+      <c r="AL18" s="90"/>
+      <c r="AM18" s="90"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="90"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="91"/>
       <c r="AZ18" s="12"/>
     </row>
-    <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="110"/>
-      <c r="Z19" s="110"/>
-      <c r="AA19" s="110"/>
-      <c r="AB19" s="110"/>
-      <c r="AC19" s="110"/>
-      <c r="AD19" s="110"/>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="110"/>
-      <c r="AG19" s="110"/>
-      <c r="AH19" s="110"/>
-      <c r="AI19" s="110"/>
-      <c r="AJ19" s="110"/>
-      <c r="AK19" s="110"/>
-      <c r="AL19" s="110"/>
-      <c r="AM19" s="110"/>
-      <c r="AN19" s="110"/>
-      <c r="AO19" s="110"/>
-      <c r="AP19" s="110"/>
-      <c r="AQ19" s="110"/>
-      <c r="AR19" s="110"/>
-      <c r="AS19" s="110"/>
-      <c r="AT19" s="110"/>
-      <c r="AU19" s="110"/>
-      <c r="AV19" s="110"/>
-      <c r="AW19" s="110"/>
-      <c r="AX19" s="110"/>
-      <c r="AY19" s="111"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="90"/>
+      <c r="AK19" s="90"/>
+      <c r="AL19" s="90"/>
+      <c r="AM19" s="90"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="90"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="90"/>
+      <c r="AT19" s="90"/>
+      <c r="AU19" s="90"/>
+      <c r="AV19" s="90"/>
+      <c r="AW19" s="90"/>
+      <c r="AX19" s="90"/>
+      <c r="AY19" s="91"/>
       <c r="AZ19" s="12"/>
     </row>
-    <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
-      <c r="Z20" s="110"/>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="110"/>
-      <c r="AG20" s="110"/>
-      <c r="AH20" s="110"/>
-      <c r="AI20" s="110"/>
-      <c r="AJ20" s="110"/>
-      <c r="AK20" s="110"/>
-      <c r="AL20" s="110"/>
-      <c r="AM20" s="110"/>
-      <c r="AN20" s="110"/>
-      <c r="AO20" s="110"/>
-      <c r="AP20" s="110"/>
-      <c r="AQ20" s="110"/>
-      <c r="AR20" s="110"/>
-      <c r="AS20" s="110"/>
-      <c r="AT20" s="110"/>
-      <c r="AU20" s="110"/>
-      <c r="AV20" s="110"/>
-      <c r="AW20" s="110"/>
-      <c r="AX20" s="110"/>
-      <c r="AY20" s="111"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="90"/>
+      <c r="AK20" s="90"/>
+      <c r="AL20" s="90"/>
+      <c r="AM20" s="90"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="90"/>
+      <c r="AQ20" s="90"/>
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="90"/>
+      <c r="AT20" s="90"/>
+      <c r="AU20" s="90"/>
+      <c r="AV20" s="90"/>
+      <c r="AW20" s="90"/>
+      <c r="AX20" s="90"/>
+      <c r="AY20" s="91"/>
       <c r="AZ20" s="12"/>
     </row>
-    <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="110"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="110"/>
-      <c r="AJ21" s="110"/>
-      <c r="AK21" s="110"/>
-      <c r="AL21" s="110"/>
-      <c r="AM21" s="110"/>
-      <c r="AN21" s="110"/>
-      <c r="AO21" s="110"/>
-      <c r="AP21" s="110"/>
-      <c r="AQ21" s="110"/>
-      <c r="AR21" s="110"/>
-      <c r="AS21" s="110"/>
-      <c r="AT21" s="110"/>
-      <c r="AU21" s="110"/>
-      <c r="AV21" s="110"/>
-      <c r="AW21" s="110"/>
-      <c r="AX21" s="110"/>
-      <c r="AY21" s="111"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="90"/>
+      <c r="AK21" s="90"/>
+      <c r="AL21" s="90"/>
+      <c r="AM21" s="90"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="90"/>
+      <c r="AS21" s="90"/>
+      <c r="AT21" s="90"/>
+      <c r="AU21" s="90"/>
+      <c r="AV21" s="90"/>
+      <c r="AW21" s="90"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="91"/>
       <c r="AZ21" s="12"/>
     </row>
-    <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="110"/>
-      <c r="AH22" s="110"/>
-      <c r="AI22" s="110"/>
-      <c r="AJ22" s="110"/>
-      <c r="AK22" s="110"/>
-      <c r="AL22" s="110"/>
-      <c r="AM22" s="110"/>
-      <c r="AN22" s="110"/>
-      <c r="AO22" s="110"/>
-      <c r="AP22" s="110"/>
-      <c r="AQ22" s="110"/>
-      <c r="AR22" s="110"/>
-      <c r="AS22" s="110"/>
-      <c r="AT22" s="110"/>
-      <c r="AU22" s="110"/>
-      <c r="AV22" s="110"/>
-      <c r="AW22" s="110"/>
-      <c r="AX22" s="110"/>
-      <c r="AY22" s="111"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="90"/>
+      <c r="AK22" s="90"/>
+      <c r="AL22" s="90"/>
+      <c r="AM22" s="90"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="90"/>
+      <c r="AR22" s="90"/>
+      <c r="AS22" s="90"/>
+      <c r="AT22" s="90"/>
+      <c r="AU22" s="90"/>
+      <c r="AV22" s="90"/>
+      <c r="AW22" s="90"/>
+      <c r="AX22" s="90"/>
+      <c r="AY22" s="91"/>
       <c r="AZ22" s="12"/>
     </row>
-    <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="110"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="110"/>
-      <c r="AG23" s="110"/>
-      <c r="AH23" s="110"/>
-      <c r="AI23" s="110"/>
-      <c r="AJ23" s="110"/>
-      <c r="AK23" s="110"/>
-      <c r="AL23" s="110"/>
-      <c r="AM23" s="110"/>
-      <c r="AN23" s="110"/>
-      <c r="AO23" s="110"/>
-      <c r="AP23" s="110"/>
-      <c r="AQ23" s="110"/>
-      <c r="AR23" s="110"/>
-      <c r="AS23" s="110"/>
-      <c r="AT23" s="110"/>
-      <c r="AU23" s="110"/>
-      <c r="AV23" s="110"/>
-      <c r="AW23" s="110"/>
-      <c r="AX23" s="110"/>
-      <c r="AY23" s="111"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="90"/>
+      <c r="AG23" s="90"/>
+      <c r="AH23" s="90"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="90"/>
+      <c r="AK23" s="90"/>
+      <c r="AL23" s="90"/>
+      <c r="AM23" s="90"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
+      <c r="AR23" s="90"/>
+      <c r="AS23" s="90"/>
+      <c r="AT23" s="90"/>
+      <c r="AU23" s="90"/>
+      <c r="AV23" s="90"/>
+      <c r="AW23" s="90"/>
+      <c r="AX23" s="90"/>
+      <c r="AY23" s="91"/>
       <c r="AZ23" s="12"/>
     </row>
-    <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="110"/>
-      <c r="AG24" s="110"/>
-      <c r="AH24" s="110"/>
-      <c r="AI24" s="110"/>
-      <c r="AJ24" s="110"/>
-      <c r="AK24" s="110"/>
-      <c r="AL24" s="110"/>
-      <c r="AM24" s="110"/>
-      <c r="AN24" s="110"/>
-      <c r="AO24" s="110"/>
-      <c r="AP24" s="110"/>
-      <c r="AQ24" s="110"/>
-      <c r="AR24" s="110"/>
-      <c r="AS24" s="110"/>
-      <c r="AT24" s="110"/>
-      <c r="AU24" s="110"/>
-      <c r="AV24" s="110"/>
-      <c r="AW24" s="110"/>
-      <c r="AX24" s="110"/>
-      <c r="AY24" s="111"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="90"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="90"/>
+      <c r="AM24" s="90"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90"/>
+      <c r="AV24" s="90"/>
+      <c r="AW24" s="90"/>
+      <c r="AX24" s="90"/>
+      <c r="AY24" s="91"/>
       <c r="AZ24" s="12"/>
     </row>
-    <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="110"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="110"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="110"/>
-      <c r="AI25" s="110"/>
-      <c r="AJ25" s="110"/>
-      <c r="AK25" s="110"/>
-      <c r="AL25" s="110"/>
-      <c r="AM25" s="110"/>
-      <c r="AN25" s="110"/>
-      <c r="AO25" s="110"/>
-      <c r="AP25" s="110"/>
-      <c r="AQ25" s="110"/>
-      <c r="AR25" s="110"/>
-      <c r="AS25" s="110"/>
-      <c r="AT25" s="110"/>
-      <c r="AU25" s="110"/>
-      <c r="AV25" s="110"/>
-      <c r="AW25" s="110"/>
-      <c r="AX25" s="110"/>
-      <c r="AY25" s="111"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="90"/>
+      <c r="AK25" s="90"/>
+      <c r="AL25" s="90"/>
+      <c r="AM25" s="90"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="90"/>
+      <c r="AU25" s="90"/>
+      <c r="AV25" s="90"/>
+      <c r="AW25" s="90"/>
+      <c r="AX25" s="90"/>
+      <c r="AY25" s="91"/>
       <c r="AZ25" s="12"/>
     </row>
-    <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="124"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="126"/>
-      <c r="AB26" s="126"/>
-      <c r="AC26" s="126"/>
-      <c r="AD26" s="126"/>
-      <c r="AE26" s="126"/>
-      <c r="AF26" s="126"/>
-      <c r="AG26" s="126"/>
-      <c r="AH26" s="126"/>
-      <c r="AI26" s="126"/>
-      <c r="AJ26" s="126"/>
-      <c r="AK26" s="126"/>
-      <c r="AL26" s="126"/>
-      <c r="AM26" s="126"/>
-      <c r="AN26" s="126"/>
-      <c r="AO26" s="126"/>
-      <c r="AP26" s="126"/>
-      <c r="AQ26" s="126"/>
-      <c r="AR26" s="126"/>
-      <c r="AS26" s="126"/>
-      <c r="AT26" s="126"/>
-      <c r="AU26" s="126"/>
-      <c r="AV26" s="126"/>
-      <c r="AW26" s="126"/>
-      <c r="AX26" s="126"/>
-      <c r="AY26" s="127"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="78"/>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="78"/>
+      <c r="AE26" s="78"/>
+      <c r="AF26" s="78"/>
+      <c r="AG26" s="78"/>
+      <c r="AH26" s="78"/>
+      <c r="AI26" s="78"/>
+      <c r="AJ26" s="78"/>
+      <c r="AK26" s="78"/>
+      <c r="AL26" s="78"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="78"/>
+      <c r="AO26" s="78"/>
+      <c r="AP26" s="78"/>
+      <c r="AQ26" s="78"/>
+      <c r="AR26" s="78"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="78"/>
+      <c r="AU26" s="78"/>
+      <c r="AV26" s="78"/>
+      <c r="AW26" s="78"/>
+      <c r="AX26" s="78"/>
+      <c r="AY26" s="79"/>
       <c r="AZ26" s="13"/>
     </row>
-    <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -3441,7 +3473,7 @@
       <c r="AY27" s="15"/>
       <c r="AZ27" s="16"/>
     </row>
-    <row r="28" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -3497,6 +3529,91 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="K26:P26"/>
@@ -3509,95 +3626,10 @@
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="K25:P25"/>
     <mergeCell ref="Q25:AY25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:AY22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:AY20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
@@ -3611,217 +3643,217 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB57"/>
+  <dimension ref="A1:BB56"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
+      <selection pane="bottomLeft" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.5" style="22"/>
+    <col min="1" max="16384" width="3.44140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="str">
+    <row r="1" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="123" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面一覧</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="72" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="73" t="str">
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="127" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="72" t="s">
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72" t="s">
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72" t="s">
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72" t="s">
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="72"/>
+      <c r="AY1" s="112"/>
       <c r="AZ1" s="128"/>
     </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="75" t="s">
+    <row r="2" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="76" t="str">
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="115" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="77">
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="116">
         <v>42591</v>
       </c>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
       <c r="AM2" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="76"/>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="83"/>
-    </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="119"/>
+      <c r="AT2" s="119"/>
+      <c r="AU2" s="119"/>
+      <c r="AV2" s="119"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="115"/>
+      <c r="AZ2" s="121"/>
+    </row>
+    <row r="3" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="80" t="str">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="86" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="80" t="str">
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="105" t="str">
         <f>設定情報!$C$5</f>
         <v>画面一覧</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="80"/>
-      <c r="AY3" s="80"/>
-      <c r="AZ3" s="84"/>
-    </row>
-    <row r="4" spans="1:54" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="105"/>
+      <c r="AP3" s="105"/>
+      <c r="AQ3" s="105"/>
+      <c r="AR3" s="105"/>
+      <c r="AS3" s="120"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="105"/>
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="122"/>
+    </row>
+    <row r="4" spans="1:54" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>37</v>
       </c>
@@ -3859,18 +3891,18 @@
       <c r="Y4" s="31"/>
       <c r="Z4" s="31"/>
       <c r="AA4" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB4" s="47"/>
       <c r="AC4" s="47"/>
       <c r="AD4" s="47"/>
       <c r="AE4" s="47"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="30" t="s">
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
       <c r="AJ4" s="31"/>
       <c r="AK4" s="31"/>
       <c r="AL4" s="31"/>
@@ -3891,7 +3923,7 @@
       <c r="BA4" s="20"/>
       <c r="BB4" s="20"/>
     </row>
-    <row r="5" spans="1:54" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:54" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
@@ -3919,20 +3951,22 @@
       <c r="Y5" s="35"/>
       <c r="Z5" s="35"/>
       <c r="AA5" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB5" s="35"/>
       <c r="AC5" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD5" s="45"/>
-      <c r="AE5" s="35" t="s">
-        <v>47</v>
+      <c r="AE5" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="AF5" s="35"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
+      <c r="AG5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="34"/>
       <c r="AJ5" s="35"/>
       <c r="AK5" s="35"/>
       <c r="AL5" s="35"/>
@@ -3953,7 +3987,7 @@
       <c r="BA5" s="20"/>
       <c r="BB5" s="20"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:54" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="39"/>
@@ -3984,11 +4018,11 @@
       <c r="AB6" s="39"/>
       <c r="AC6" s="38"/>
       <c r="AD6" s="44"/>
-      <c r="AE6" s="39"/>
+      <c r="AE6" s="38"/>
       <c r="AF6" s="39"/>
       <c r="AG6" s="38"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="38"/>
       <c r="AJ6" s="39"/>
       <c r="AK6" s="39"/>
       <c r="AL6" s="39"/>
@@ -4007,7 +4041,7 @@
       <c r="AY6" s="41"/>
       <c r="AZ6" s="42"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <f ca="1">IF(L7="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>1</v>
@@ -4038,7 +4072,7 @@
       <c r="S7" s="50"/>
       <c r="T7" s="50"/>
       <c r="U7" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V7" s="50"/>
       <c r="W7" s="50"/>
@@ -4046,20 +4080,22 @@
       <c r="Y7" s="50"/>
       <c r="Z7" s="50"/>
       <c r="AA7" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB7" s="50"/>
       <c r="AC7" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD7" s="52"/>
-      <c r="AE7" s="50" t="s">
-        <v>49</v>
+      <c r="AE7" s="49" t="s">
+        <v>48</v>
       </c>
       <c r="AF7" s="50"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
+      <c r="AG7" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="49"/>
       <c r="AJ7" s="50"/>
       <c r="AK7" s="50"/>
       <c r="AL7" s="50"/>
@@ -4078,7 +4114,7 @@
       <c r="AY7" s="53"/>
       <c r="AZ7" s="54"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37">
         <f ca="1">IF(L8="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>2</v>
@@ -4109,7 +4145,7 @@
       <c r="S8" s="56"/>
       <c r="T8" s="56"/>
       <c r="U8" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V8" s="56"/>
       <c r="W8" s="56"/>
@@ -4117,20 +4153,22 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="56"/>
       <c r="AA8" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB8" s="56"/>
       <c r="AC8" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD8" s="59"/>
-      <c r="AE8" s="56" t="s">
-        <v>49</v>
+      <c r="AE8" s="58" t="s">
+        <v>48</v>
       </c>
       <c r="AF8" s="56"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
+      <c r="AG8" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="58"/>
       <c r="AJ8" s="56"/>
       <c r="AK8" s="56"/>
       <c r="AL8" s="56"/>
@@ -4149,7 +4187,7 @@
       <c r="AY8" s="56"/>
       <c r="AZ8" s="60"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
         <f ca="1">IF(L9="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>3</v>
@@ -4180,7 +4218,7 @@
       <c r="S9" s="56"/>
       <c r="T9" s="56"/>
       <c r="U9" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V9" s="56"/>
       <c r="W9" s="56"/>
@@ -4188,20 +4226,22 @@
       <c r="Y9" s="56"/>
       <c r="Z9" s="56"/>
       <c r="AA9" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB9" s="56"/>
       <c r="AC9" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD9" s="59"/>
-      <c r="AE9" s="56" t="s">
-        <v>49</v>
+      <c r="AE9" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="AF9" s="56"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
+      <c r="AG9" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="58"/>
       <c r="AJ9" s="56"/>
       <c r="AK9" s="56"/>
       <c r="AL9" s="56"/>
@@ -4220,7 +4260,7 @@
       <c r="AY9" s="56"/>
       <c r="AZ9" s="60"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
         <f ca="1">IF(L10="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>4</v>
@@ -4251,7 +4291,7 @@
       <c r="S10" s="56"/>
       <c r="T10" s="56"/>
       <c r="U10" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V10" s="56"/>
       <c r="W10" s="56"/>
@@ -4259,20 +4299,22 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="56"/>
       <c r="AA10" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB10" s="56"/>
       <c r="AC10" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD10" s="59"/>
-      <c r="AE10" s="56" t="s">
-        <v>49</v>
+      <c r="AE10" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="AF10" s="56"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
+      <c r="AG10" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="58"/>
       <c r="AJ10" s="56"/>
       <c r="AK10" s="56"/>
       <c r="AL10" s="56"/>
@@ -4291,7 +4333,7 @@
       <c r="AY10" s="56"/>
       <c r="AZ10" s="60"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
         <f ca="1">IF(L11="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>5</v>
@@ -4304,14 +4346,14 @@
       <c r="E11" s="61"/>
       <c r="F11" s="61"/>
       <c r="G11" s="58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="61"/>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
       <c r="L11" s="55" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M11" s="56"/>
       <c r="N11" s="56"/>
@@ -4322,7 +4364,7 @@
       <c r="S11" s="56"/>
       <c r="T11" s="56"/>
       <c r="U11" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V11" s="56"/>
       <c r="W11" s="56"/>
@@ -4330,20 +4372,22 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="56"/>
       <c r="AA11" s="58" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AB11" s="56"/>
       <c r="AC11" s="58" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AD11" s="59"/>
-      <c r="AE11" s="56" t="s">
-        <v>49</v>
+      <c r="AE11" s="58" t="s">
+        <v>48</v>
       </c>
       <c r="AF11" s="56"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
+      <c r="AG11" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="58"/>
       <c r="AJ11" s="56"/>
       <c r="AK11" s="56"/>
       <c r="AL11" s="56"/>
@@ -4362,7 +4406,7 @@
       <c r="AY11" s="56"/>
       <c r="AZ11" s="60"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37">
         <f ca="1">IF(L12="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>6</v>
@@ -4382,7 +4426,7 @@
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
       <c r="L12" s="55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="56"/>
       <c r="N12" s="56"/>
@@ -4393,7 +4437,7 @@
       <c r="S12" s="56"/>
       <c r="T12" s="56"/>
       <c r="U12" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V12" s="56"/>
       <c r="W12" s="56"/>
@@ -4401,20 +4445,22 @@
       <c r="Y12" s="56"/>
       <c r="Z12" s="56"/>
       <c r="AA12" s="58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB12" s="56"/>
       <c r="AC12" s="58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AD12" s="59"/>
-      <c r="AE12" s="56" t="s">
-        <v>49</v>
+      <c r="AE12" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="AF12" s="56"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
+      <c r="AG12" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="58"/>
       <c r="AJ12" s="56"/>
       <c r="AK12" s="56"/>
       <c r="AL12" s="56"/>
@@ -4433,7 +4479,7 @@
       <c r="AY12" s="56"/>
       <c r="AZ12" s="60"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37">
         <f ca="1">IF(L13="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>7</v>
@@ -4441,19 +4487,19 @@
       <c r="B13" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
       <c r="L13" s="55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13" s="56"/>
       <c r="N13" s="56"/>
@@ -4464,7 +4510,7 @@
       <c r="S13" s="56"/>
       <c r="T13" s="56"/>
       <c r="U13" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V13" s="56"/>
       <c r="W13" s="56"/>
@@ -4472,20 +4518,22 @@
       <c r="Y13" s="56"/>
       <c r="Z13" s="56"/>
       <c r="AA13" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB13" s="56"/>
       <c r="AC13" s="58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AD13" s="59"/>
       <c r="AE13" s="58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF13" s="56"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
+      <c r="AG13" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="58"/>
       <c r="AJ13" s="56"/>
       <c r="AK13" s="56"/>
       <c r="AL13" s="56"/>
@@ -4504,7 +4552,7 @@
       <c r="AY13" s="56"/>
       <c r="AZ13" s="60"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
         <f ca="1">IF(L14="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>8</v>
@@ -4524,7 +4572,7 @@
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
       <c r="L14" s="55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M14" s="56"/>
       <c r="N14" s="56"/>
@@ -4535,7 +4583,7 @@
       <c r="S14" s="56"/>
       <c r="T14" s="56"/>
       <c r="U14" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V14" s="56"/>
       <c r="W14" s="56"/>
@@ -4543,20 +4591,22 @@
       <c r="Y14" s="56"/>
       <c r="Z14" s="56"/>
       <c r="AA14" s="58" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AB14" s="56"/>
       <c r="AC14" s="58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AD14" s="59"/>
       <c r="AE14" s="58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF14" s="56"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
+      <c r="AG14" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="58"/>
       <c r="AJ14" s="56"/>
       <c r="AK14" s="56"/>
       <c r="AL14" s="56"/>
@@ -4575,7 +4625,7 @@
       <c r="AY14" s="56"/>
       <c r="AZ14" s="60"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37">
         <f ca="1">IF(L15="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>9</v>
@@ -4595,7 +4645,7 @@
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
       <c r="L15" s="55" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M15" s="56"/>
       <c r="N15" s="56"/>
@@ -4606,7 +4656,7 @@
       <c r="S15" s="56"/>
       <c r="T15" s="56"/>
       <c r="U15" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V15" s="56"/>
       <c r="W15" s="56"/>
@@ -4614,20 +4664,22 @@
       <c r="Y15" s="56"/>
       <c r="Z15" s="56"/>
       <c r="AA15" s="58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB15" s="56"/>
       <c r="AC15" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD15" s="59"/>
       <c r="AE15" s="58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF15" s="56"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
+      <c r="AG15" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="58"/>
       <c r="AJ15" s="56"/>
       <c r="AK15" s="56"/>
       <c r="AL15" s="56"/>
@@ -4646,7 +4698,7 @@
       <c r="AY15" s="56"/>
       <c r="AZ15" s="60"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37">
         <f ca="1">IF(L16="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>10</v>
@@ -4666,7 +4718,7 @@
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
       <c r="L16" s="55" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M16" s="56"/>
       <c r="N16" s="56"/>
@@ -4677,7 +4729,7 @@
       <c r="S16" s="56"/>
       <c r="T16" s="56"/>
       <c r="U16" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V16" s="56"/>
       <c r="W16" s="56"/>
@@ -4689,16 +4741,18 @@
       </c>
       <c r="AB16" s="56"/>
       <c r="AC16" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD16" s="59"/>
       <c r="AE16" s="58" t="s">
         <v>44</v>
       </c>
       <c r="AF16" s="56"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
+      <c r="AG16" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="58"/>
       <c r="AJ16" s="56"/>
       <c r="AK16" s="56"/>
       <c r="AL16" s="56"/>
@@ -4717,28 +4771,22 @@
       <c r="AY16" s="56"/>
       <c r="AZ16" s="60"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="37">
-        <f ca="1">IF(L17="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v>11</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>27</v>
-      </c>
+    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="str">
+        <f>IF(L17="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v/>
+      </c>
+      <c r="B17" s="55"/>
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="58" t="s">
-        <v>43</v>
-      </c>
+      <c r="G17" s="58"/>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
       <c r="K17" s="56"/>
-      <c r="L17" s="55" t="s">
-        <v>36</v>
-      </c>
+      <c r="L17" s="55"/>
       <c r="M17" s="56"/>
       <c r="N17" s="56"/>
       <c r="O17" s="56"/>
@@ -4747,29 +4795,21 @@
       <c r="R17" s="56"/>
       <c r="S17" s="56"/>
       <c r="T17" s="56"/>
-      <c r="U17" s="58" t="s">
-        <v>64</v>
-      </c>
+      <c r="U17" s="58"/>
       <c r="V17" s="56"/>
       <c r="W17" s="56"/>
       <c r="X17" s="56"/>
       <c r="Y17" s="56"/>
       <c r="Z17" s="56"/>
-      <c r="AA17" s="58" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA17" s="58"/>
       <c r="AB17" s="56"/>
-      <c r="AC17" s="58" t="s">
-        <v>49</v>
-      </c>
+      <c r="AC17" s="58"/>
       <c r="AD17" s="59"/>
-      <c r="AE17" s="58" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE17" s="58"/>
       <c r="AF17" s="56"/>
       <c r="AG17" s="58"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="58"/>
       <c r="AJ17" s="56"/>
       <c r="AK17" s="56"/>
       <c r="AL17" s="56"/>
@@ -4788,7 +4828,7 @@
       <c r="AY17" s="56"/>
       <c r="AZ17" s="60"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="str">
         <f>IF(L18="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -4825,8 +4865,8 @@
       <c r="AE18" s="58"/>
       <c r="AF18" s="56"/>
       <c r="AG18" s="58"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="58"/>
       <c r="AJ18" s="56"/>
       <c r="AK18" s="56"/>
       <c r="AL18" s="56"/>
@@ -4845,7 +4885,7 @@
       <c r="AY18" s="56"/>
       <c r="AZ18" s="60"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="str">
         <f>IF(L19="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -4879,11 +4919,11 @@
       <c r="AB19" s="56"/>
       <c r="AC19" s="58"/>
       <c r="AD19" s="59"/>
-      <c r="AE19" s="56"/>
+      <c r="AE19" s="58"/>
       <c r="AF19" s="56"/>
       <c r="AG19" s="58"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="58"/>
       <c r="AJ19" s="56"/>
       <c r="AK19" s="56"/>
       <c r="AL19" s="56"/>
@@ -4902,7 +4942,7 @@
       <c r="AY19" s="56"/>
       <c r="AZ19" s="60"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="str">
         <f>IF(L20="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -4936,11 +4976,11 @@
       <c r="AB20" s="56"/>
       <c r="AC20" s="58"/>
       <c r="AD20" s="59"/>
-      <c r="AE20" s="56"/>
+      <c r="AE20" s="58"/>
       <c r="AF20" s="56"/>
       <c r="AG20" s="58"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="58"/>
       <c r="AJ20" s="56"/>
       <c r="AK20" s="56"/>
       <c r="AL20" s="56"/>
@@ -4959,21 +4999,21 @@
       <c r="AY20" s="56"/>
       <c r="AZ20" s="60"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="str">
         <f>IF(L21="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B21" s="55"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="58"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
@@ -4993,11 +5033,11 @@
       <c r="AB21" s="56"/>
       <c r="AC21" s="58"/>
       <c r="AD21" s="59"/>
-      <c r="AE21" s="56"/>
+      <c r="AE21" s="58"/>
       <c r="AF21" s="56"/>
       <c r="AG21" s="58"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="58"/>
       <c r="AJ21" s="56"/>
       <c r="AK21" s="56"/>
       <c r="AL21" s="56"/>
@@ -5016,64 +5056,65 @@
       <c r="AY21" s="56"/>
       <c r="AZ21" s="60"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="str">
         <f>IF(L22="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
       <c r="F22" s="61"/>
-      <c r="G22" s="58"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
       <c r="K22" s="61"/>
       <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="56"/>
-      <c r="AQ22" s="56"/>
-      <c r="AR22" s="56"/>
-      <c r="AS22" s="56"/>
-      <c r="AT22" s="56"/>
-      <c r="AU22" s="56"/>
-      <c r="AV22" s="56"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="61"/>
+      <c r="AL22" s="61"/>
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="61"/>
+      <c r="AO22" s="61"/>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="61"/>
+      <c r="AS22" s="61"/>
+      <c r="AT22" s="61"/>
+      <c r="AU22" s="61"/>
+      <c r="AV22" s="61"/>
       <c r="AW22" s="56"/>
       <c r="AX22" s="56"/>
       <c r="AY22" s="56"/>
       <c r="AZ22" s="60"/>
-    </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BB22" s="23"/>
+    </row>
+    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="str">
         <f>IF(L23="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -5083,69 +5124,68 @@
       <c r="D23" s="61"/>
       <c r="E23" s="61"/>
       <c r="F23" s="61"/>
-      <c r="G23" s="55"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="61"/>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
       <c r="K23" s="61"/>
       <c r="L23" s="55"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="55"/>
-      <c r="AH23" s="61"/>
-      <c r="AI23" s="61"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="61"/>
-      <c r="AN23" s="61"/>
-      <c r="AO23" s="61"/>
-      <c r="AP23" s="61"/>
-      <c r="AQ23" s="61"/>
-      <c r="AR23" s="61"/>
-      <c r="AS23" s="61"/>
-      <c r="AT23" s="61"/>
-      <c r="AU23" s="61"/>
-      <c r="AV23" s="61"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56"/>
+      <c r="AQ23" s="56"/>
+      <c r="AR23" s="56"/>
+      <c r="AS23" s="56"/>
+      <c r="AT23" s="56"/>
+      <c r="AU23" s="56"/>
+      <c r="AV23" s="56"/>
       <c r="AW23" s="56"/>
       <c r="AX23" s="56"/>
       <c r="AY23" s="56"/>
       <c r="AZ23" s="60"/>
-      <c r="BB23" s="23"/>
-    </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="str">
         <f>IF(L24="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="58"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
       <c r="L24" s="55"/>
       <c r="M24" s="56"/>
       <c r="N24" s="56"/>
@@ -5165,11 +5205,11 @@
       <c r="AB24" s="56"/>
       <c r="AC24" s="58"/>
       <c r="AD24" s="59"/>
-      <c r="AE24" s="56"/>
+      <c r="AE24" s="58"/>
       <c r="AF24" s="56"/>
       <c r="AG24" s="58"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="58"/>
       <c r="AJ24" s="56"/>
       <c r="AK24" s="56"/>
       <c r="AL24" s="56"/>
@@ -5188,64 +5228,65 @@
       <c r="AY24" s="56"/>
       <c r="AZ24" s="60"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="str">
         <f>IF(L25="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
       <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="56"/>
-      <c r="AS25" s="56"/>
-      <c r="AT25" s="56"/>
-      <c r="AU25" s="56"/>
-      <c r="AV25" s="56"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="61"/>
+      <c r="AO25" s="61"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="61"/>
+      <c r="AR25" s="61"/>
+      <c r="AS25" s="61"/>
+      <c r="AT25" s="61"/>
+      <c r="AU25" s="61"/>
+      <c r="AV25" s="61"/>
       <c r="AW25" s="56"/>
       <c r="AX25" s="56"/>
       <c r="AY25" s="56"/>
       <c r="AZ25" s="60"/>
-    </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BB25" s="23"/>
+    </row>
+    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="str">
         <f>IF(L26="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -5279,11 +5320,11 @@
       <c r="AB26" s="61"/>
       <c r="AC26" s="55"/>
       <c r="AD26" s="62"/>
-      <c r="AE26" s="61"/>
+      <c r="AE26" s="55"/>
       <c r="AF26" s="61"/>
       <c r="AG26" s="55"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="61"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="55"/>
       <c r="AJ26" s="61"/>
       <c r="AK26" s="61"/>
       <c r="AL26" s="61"/>
@@ -5303,21 +5344,21 @@
       <c r="AZ26" s="60"/>
       <c r="BB26" s="23"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="str">
         <f>IF(L27="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B27" s="55"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="55"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="55"/>
       <c r="M27" s="61"/>
       <c r="N27" s="61"/>
@@ -5337,11 +5378,11 @@
       <c r="AB27" s="61"/>
       <c r="AC27" s="55"/>
       <c r="AD27" s="62"/>
-      <c r="AE27" s="61"/>
+      <c r="AE27" s="55"/>
       <c r="AF27" s="61"/>
       <c r="AG27" s="55"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="55"/>
       <c r="AJ27" s="61"/>
       <c r="AK27" s="61"/>
       <c r="AL27" s="61"/>
@@ -5359,66 +5400,65 @@
       <c r="AX27" s="56"/>
       <c r="AY27" s="56"/>
       <c r="AZ27" s="60"/>
-      <c r="BB27" s="23"/>
-    </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="str">
         <f>IF(L28="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
       </c>
       <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="55"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="62"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="61"/>
-      <c r="AL28" s="61"/>
-      <c r="AM28" s="61"/>
-      <c r="AN28" s="61"/>
-      <c r="AO28" s="61"/>
-      <c r="AP28" s="61"/>
-      <c r="AQ28" s="61"/>
-      <c r="AR28" s="61"/>
-      <c r="AS28" s="61"/>
-      <c r="AT28" s="61"/>
-      <c r="AU28" s="61"/>
-      <c r="AV28" s="61"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="58"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="58"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="58"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
       <c r="AW28" s="56"/>
       <c r="AX28" s="56"/>
       <c r="AY28" s="56"/>
       <c r="AZ28" s="60"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="str">
         <f>IF(L29="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -5452,11 +5492,11 @@
       <c r="AB29" s="56"/>
       <c r="AC29" s="58"/>
       <c r="AD29" s="59"/>
-      <c r="AE29" s="56"/>
+      <c r="AE29" s="58"/>
       <c r="AF29" s="56"/>
       <c r="AG29" s="58"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
+      <c r="AH29" s="59"/>
+      <c r="AI29" s="58"/>
       <c r="AJ29" s="56"/>
       <c r="AK29" s="56"/>
       <c r="AL29" s="56"/>
@@ -5475,7 +5515,7 @@
       <c r="AY29" s="56"/>
       <c r="AZ29" s="60"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="str">
         <f>IF(L30="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -5509,11 +5549,11 @@
       <c r="AB30" s="56"/>
       <c r="AC30" s="58"/>
       <c r="AD30" s="59"/>
-      <c r="AE30" s="56"/>
+      <c r="AE30" s="58"/>
       <c r="AF30" s="56"/>
       <c r="AG30" s="58"/>
-      <c r="AH30" s="56"/>
-      <c r="AI30" s="56"/>
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="58"/>
       <c r="AJ30" s="56"/>
       <c r="AK30" s="56"/>
       <c r="AL30" s="56"/>
@@ -5532,7 +5572,7 @@
       <c r="AY30" s="56"/>
       <c r="AZ30" s="60"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="str">
         <f>IF(L31="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -5566,11 +5606,11 @@
       <c r="AB31" s="56"/>
       <c r="AC31" s="58"/>
       <c r="AD31" s="59"/>
-      <c r="AE31" s="56"/>
+      <c r="AE31" s="58"/>
       <c r="AF31" s="56"/>
       <c r="AG31" s="58"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="56"/>
+      <c r="AH31" s="59"/>
+      <c r="AI31" s="58"/>
       <c r="AJ31" s="56"/>
       <c r="AK31" s="56"/>
       <c r="AL31" s="56"/>
@@ -5589,7 +5629,7 @@
       <c r="AY31" s="56"/>
       <c r="AZ31" s="60"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="str">
         <f>IF(L32="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -5623,11 +5663,11 @@
       <c r="AB32" s="56"/>
       <c r="AC32" s="58"/>
       <c r="AD32" s="59"/>
-      <c r="AE32" s="56"/>
+      <c r="AE32" s="58"/>
       <c r="AF32" s="56"/>
       <c r="AG32" s="58"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="58"/>
       <c r="AJ32" s="56"/>
       <c r="AK32" s="56"/>
       <c r="AL32" s="56"/>
@@ -5646,7 +5686,7 @@
       <c r="AY32" s="56"/>
       <c r="AZ32" s="60"/>
     </row>
-    <row r="33" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="str">
         <f>IF(L33="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -5680,11 +5720,11 @@
       <c r="AB33" s="56"/>
       <c r="AC33" s="58"/>
       <c r="AD33" s="59"/>
-      <c r="AE33" s="56"/>
+      <c r="AE33" s="58"/>
       <c r="AF33" s="56"/>
       <c r="AG33" s="58"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="58"/>
       <c r="AJ33" s="56"/>
       <c r="AK33" s="56"/>
       <c r="AL33" s="56"/>
@@ -5703,7 +5743,7 @@
       <c r="AY33" s="56"/>
       <c r="AZ33" s="60"/>
     </row>
-    <row r="34" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="str">
         <f>IF(L34="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -5737,11 +5777,11 @@
       <c r="AB34" s="56"/>
       <c r="AC34" s="58"/>
       <c r="AD34" s="59"/>
-      <c r="AE34" s="56"/>
+      <c r="AE34" s="58"/>
       <c r="AF34" s="56"/>
       <c r="AG34" s="58"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="58"/>
       <c r="AJ34" s="56"/>
       <c r="AK34" s="56"/>
       <c r="AL34" s="56"/>
@@ -5760,7 +5800,7 @@
       <c r="AY34" s="56"/>
       <c r="AZ34" s="60"/>
     </row>
-    <row r="35" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="str">
         <f>IF(L35="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -5794,11 +5834,11 @@
       <c r="AB35" s="56"/>
       <c r="AC35" s="58"/>
       <c r="AD35" s="59"/>
-      <c r="AE35" s="56"/>
+      <c r="AE35" s="58"/>
       <c r="AF35" s="56"/>
       <c r="AG35" s="58"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="58"/>
       <c r="AJ35" s="56"/>
       <c r="AK35" s="56"/>
       <c r="AL35" s="56"/>
@@ -5817,7 +5857,7 @@
       <c r="AY35" s="56"/>
       <c r="AZ35" s="60"/>
     </row>
-    <row r="36" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="str">
         <f>IF(L36="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -5851,11 +5891,11 @@
       <c r="AB36" s="56"/>
       <c r="AC36" s="58"/>
       <c r="AD36" s="59"/>
-      <c r="AE36" s="56"/>
+      <c r="AE36" s="58"/>
       <c r="AF36" s="56"/>
       <c r="AG36" s="58"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="58"/>
       <c r="AJ36" s="56"/>
       <c r="AK36" s="56"/>
       <c r="AL36" s="56"/>
@@ -5874,7 +5914,7 @@
       <c r="AY36" s="56"/>
       <c r="AZ36" s="60"/>
     </row>
-    <row r="37" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="str">
         <f>IF(L37="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -5908,11 +5948,11 @@
       <c r="AB37" s="56"/>
       <c r="AC37" s="58"/>
       <c r="AD37" s="59"/>
-      <c r="AE37" s="56"/>
+      <c r="AE37" s="58"/>
       <c r="AF37" s="56"/>
       <c r="AG37" s="58"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="58"/>
       <c r="AJ37" s="56"/>
       <c r="AK37" s="56"/>
       <c r="AL37" s="56"/>
@@ -5931,7 +5971,7 @@
       <c r="AY37" s="56"/>
       <c r="AZ37" s="60"/>
     </row>
-    <row r="38" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="str">
         <f>IF(L38="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -5965,11 +6005,11 @@
       <c r="AB38" s="56"/>
       <c r="AC38" s="58"/>
       <c r="AD38" s="59"/>
-      <c r="AE38" s="56"/>
+      <c r="AE38" s="58"/>
       <c r="AF38" s="56"/>
       <c r="AG38" s="58"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="58"/>
       <c r="AJ38" s="56"/>
       <c r="AK38" s="56"/>
       <c r="AL38" s="56"/>
@@ -5988,7 +6028,7 @@
       <c r="AY38" s="56"/>
       <c r="AZ38" s="60"/>
     </row>
-    <row r="39" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="37" t="str">
         <f>IF(L39="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6022,11 +6062,11 @@
       <c r="AB39" s="56"/>
       <c r="AC39" s="58"/>
       <c r="AD39" s="59"/>
-      <c r="AE39" s="56"/>
+      <c r="AE39" s="58"/>
       <c r="AF39" s="56"/>
       <c r="AG39" s="58"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="58"/>
       <c r="AJ39" s="56"/>
       <c r="AK39" s="56"/>
       <c r="AL39" s="56"/>
@@ -6045,7 +6085,7 @@
       <c r="AY39" s="56"/>
       <c r="AZ39" s="60"/>
     </row>
-    <row r="40" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="37" t="str">
         <f>IF(L40="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6079,11 +6119,11 @@
       <c r="AB40" s="56"/>
       <c r="AC40" s="58"/>
       <c r="AD40" s="59"/>
-      <c r="AE40" s="56"/>
+      <c r="AE40" s="58"/>
       <c r="AF40" s="56"/>
       <c r="AG40" s="58"/>
-      <c r="AH40" s="56"/>
-      <c r="AI40" s="56"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="58"/>
       <c r="AJ40" s="56"/>
       <c r="AK40" s="56"/>
       <c r="AL40" s="56"/>
@@ -6102,7 +6142,7 @@
       <c r="AY40" s="56"/>
       <c r="AZ40" s="60"/>
     </row>
-    <row r="41" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="str">
         <f>IF(L41="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6136,11 +6176,11 @@
       <c r="AB41" s="56"/>
       <c r="AC41" s="58"/>
       <c r="AD41" s="59"/>
-      <c r="AE41" s="56"/>
+      <c r="AE41" s="58"/>
       <c r="AF41" s="56"/>
       <c r="AG41" s="58"/>
-      <c r="AH41" s="56"/>
-      <c r="AI41" s="56"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="58"/>
       <c r="AJ41" s="56"/>
       <c r="AK41" s="56"/>
       <c r="AL41" s="56"/>
@@ -6159,7 +6199,7 @@
       <c r="AY41" s="56"/>
       <c r="AZ41" s="60"/>
     </row>
-    <row r="42" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="str">
         <f>IF(L42="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6193,11 +6233,11 @@
       <c r="AB42" s="56"/>
       <c r="AC42" s="58"/>
       <c r="AD42" s="59"/>
-      <c r="AE42" s="56"/>
+      <c r="AE42" s="58"/>
       <c r="AF42" s="56"/>
       <c r="AG42" s="58"/>
-      <c r="AH42" s="56"/>
-      <c r="AI42" s="56"/>
+      <c r="AH42" s="59"/>
+      <c r="AI42" s="58"/>
       <c r="AJ42" s="56"/>
       <c r="AK42" s="56"/>
       <c r="AL42" s="56"/>
@@ -6216,7 +6256,7 @@
       <c r="AY42" s="56"/>
       <c r="AZ42" s="60"/>
     </row>
-    <row r="43" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="37" t="str">
         <f>IF(L43="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6250,11 +6290,11 @@
       <c r="AB43" s="56"/>
       <c r="AC43" s="58"/>
       <c r="AD43" s="59"/>
-      <c r="AE43" s="56"/>
+      <c r="AE43" s="58"/>
       <c r="AF43" s="56"/>
       <c r="AG43" s="58"/>
-      <c r="AH43" s="56"/>
-      <c r="AI43" s="56"/>
+      <c r="AH43" s="59"/>
+      <c r="AI43" s="58"/>
       <c r="AJ43" s="56"/>
       <c r="AK43" s="56"/>
       <c r="AL43" s="56"/>
@@ -6273,7 +6313,7 @@
       <c r="AY43" s="56"/>
       <c r="AZ43" s="60"/>
     </row>
-    <row r="44" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="str">
         <f>IF(L44="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6307,11 +6347,11 @@
       <c r="AB44" s="56"/>
       <c r="AC44" s="58"/>
       <c r="AD44" s="59"/>
-      <c r="AE44" s="56"/>
+      <c r="AE44" s="58"/>
       <c r="AF44" s="56"/>
       <c r="AG44" s="58"/>
-      <c r="AH44" s="56"/>
-      <c r="AI44" s="56"/>
+      <c r="AH44" s="59"/>
+      <c r="AI44" s="58"/>
       <c r="AJ44" s="56"/>
       <c r="AK44" s="56"/>
       <c r="AL44" s="56"/>
@@ -6330,7 +6370,7 @@
       <c r="AY44" s="56"/>
       <c r="AZ44" s="60"/>
     </row>
-    <row r="45" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="str">
         <f>IF(L45="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6364,11 +6404,11 @@
       <c r="AB45" s="56"/>
       <c r="AC45" s="58"/>
       <c r="AD45" s="59"/>
-      <c r="AE45" s="56"/>
+      <c r="AE45" s="58"/>
       <c r="AF45" s="56"/>
       <c r="AG45" s="58"/>
-      <c r="AH45" s="56"/>
-      <c r="AI45" s="56"/>
+      <c r="AH45" s="59"/>
+      <c r="AI45" s="58"/>
       <c r="AJ45" s="56"/>
       <c r="AK45" s="56"/>
       <c r="AL45" s="56"/>
@@ -6387,7 +6427,7 @@
       <c r="AY45" s="56"/>
       <c r="AZ45" s="60"/>
     </row>
-    <row r="46" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="37" t="str">
         <f>IF(L46="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6397,54 +6437,54 @@
       <c r="D46" s="61"/>
       <c r="E46" s="61"/>
       <c r="F46" s="61"/>
-      <c r="G46" s="58"/>
+      <c r="G46" s="55"/>
       <c r="H46" s="61"/>
       <c r="I46" s="61"/>
       <c r="J46" s="61"/>
       <c r="K46" s="61"/>
       <c r="L46" s="55"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="58"/>
-      <c r="AB46" s="56"/>
-      <c r="AC46" s="58"/>
-      <c r="AD46" s="59"/>
-      <c r="AE46" s="56"/>
-      <c r="AF46" s="56"/>
-      <c r="AG46" s="58"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="56"/>
-      <c r="AJ46" s="56"/>
-      <c r="AK46" s="56"/>
-      <c r="AL46" s="56"/>
-      <c r="AM46" s="56"/>
-      <c r="AN46" s="56"/>
-      <c r="AO46" s="56"/>
-      <c r="AP46" s="56"/>
-      <c r="AQ46" s="56"/>
-      <c r="AR46" s="56"/>
-      <c r="AS46" s="56"/>
-      <c r="AT46" s="56"/>
-      <c r="AU46" s="56"/>
-      <c r="AV46" s="56"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="61"/>
+      <c r="AC46" s="55"/>
+      <c r="AD46" s="62"/>
+      <c r="AE46" s="55"/>
+      <c r="AF46" s="61"/>
+      <c r="AG46" s="55"/>
+      <c r="AH46" s="62"/>
+      <c r="AI46" s="55"/>
+      <c r="AJ46" s="61"/>
+      <c r="AK46" s="61"/>
+      <c r="AL46" s="61"/>
+      <c r="AM46" s="61"/>
+      <c r="AN46" s="61"/>
+      <c r="AO46" s="61"/>
+      <c r="AP46" s="61"/>
+      <c r="AQ46" s="61"/>
+      <c r="AR46" s="61"/>
+      <c r="AS46" s="61"/>
+      <c r="AT46" s="61"/>
+      <c r="AU46" s="61"/>
+      <c r="AV46" s="61"/>
       <c r="AW46" s="56"/>
       <c r="AX46" s="56"/>
       <c r="AY46" s="56"/>
       <c r="AZ46" s="60"/>
     </row>
-    <row r="47" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="str">
         <f>IF(L47="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6454,54 +6494,54 @@
       <c r="D47" s="61"/>
       <c r="E47" s="61"/>
       <c r="F47" s="61"/>
-      <c r="G47" s="55"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="61"/>
       <c r="I47" s="61"/>
       <c r="J47" s="61"/>
       <c r="K47" s="61"/>
       <c r="L47" s="55"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
-      <c r="S47" s="61"/>
-      <c r="T47" s="61"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="61"/>
-      <c r="W47" s="61"/>
-      <c r="X47" s="61"/>
-      <c r="Y47" s="61"/>
-      <c r="Z47" s="61"/>
-      <c r="AA47" s="55"/>
-      <c r="AB47" s="61"/>
-      <c r="AC47" s="55"/>
-      <c r="AD47" s="62"/>
-      <c r="AE47" s="61"/>
-      <c r="AF47" s="61"/>
-      <c r="AG47" s="55"/>
-      <c r="AH47" s="61"/>
-      <c r="AI47" s="61"/>
-      <c r="AJ47" s="61"/>
-      <c r="AK47" s="61"/>
-      <c r="AL47" s="61"/>
-      <c r="AM47" s="61"/>
-      <c r="AN47" s="61"/>
-      <c r="AO47" s="61"/>
-      <c r="AP47" s="61"/>
-      <c r="AQ47" s="61"/>
-      <c r="AR47" s="61"/>
-      <c r="AS47" s="61"/>
-      <c r="AT47" s="61"/>
-      <c r="AU47" s="61"/>
-      <c r="AV47" s="61"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="58"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="56"/>
+      <c r="AC47" s="58"/>
+      <c r="AD47" s="59"/>
+      <c r="AE47" s="58"/>
+      <c r="AF47" s="56"/>
+      <c r="AG47" s="58"/>
+      <c r="AH47" s="59"/>
+      <c r="AI47" s="58"/>
+      <c r="AJ47" s="56"/>
+      <c r="AK47" s="56"/>
+      <c r="AL47" s="56"/>
+      <c r="AM47" s="56"/>
+      <c r="AN47" s="56"/>
+      <c r="AO47" s="56"/>
+      <c r="AP47" s="56"/>
+      <c r="AQ47" s="56"/>
+      <c r="AR47" s="56"/>
+      <c r="AS47" s="56"/>
+      <c r="AT47" s="56"/>
+      <c r="AU47" s="56"/>
+      <c r="AV47" s="56"/>
       <c r="AW47" s="56"/>
       <c r="AX47" s="56"/>
       <c r="AY47" s="56"/>
       <c r="AZ47" s="60"/>
     </row>
-    <row r="48" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="str">
         <f>IF(L48="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6511,54 +6551,55 @@
       <c r="D48" s="61"/>
       <c r="E48" s="61"/>
       <c r="F48" s="61"/>
-      <c r="G48" s="58"/>
+      <c r="G48" s="55"/>
       <c r="H48" s="61"/>
       <c r="I48" s="61"/>
       <c r="J48" s="61"/>
       <c r="K48" s="61"/>
       <c r="L48" s="55"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="58"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="58"/>
-      <c r="AB48" s="56"/>
-      <c r="AC48" s="58"/>
-      <c r="AD48" s="59"/>
-      <c r="AE48" s="56"/>
-      <c r="AF48" s="56"/>
-      <c r="AG48" s="58"/>
-      <c r="AH48" s="56"/>
-      <c r="AI48" s="56"/>
-      <c r="AJ48" s="56"/>
-      <c r="AK48" s="56"/>
-      <c r="AL48" s="56"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="56"/>
-      <c r="AO48" s="56"/>
-      <c r="AP48" s="56"/>
-      <c r="AQ48" s="56"/>
-      <c r="AR48" s="56"/>
-      <c r="AS48" s="56"/>
-      <c r="AT48" s="56"/>
-      <c r="AU48" s="56"/>
-      <c r="AV48" s="56"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="61"/>
+      <c r="Y48" s="61"/>
+      <c r="Z48" s="61"/>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="61"/>
+      <c r="AC48" s="55"/>
+      <c r="AD48" s="62"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="61"/>
+      <c r="AG48" s="55"/>
+      <c r="AH48" s="62"/>
+      <c r="AI48" s="55"/>
+      <c r="AJ48" s="61"/>
+      <c r="AK48" s="61"/>
+      <c r="AL48" s="61"/>
+      <c r="AM48" s="61"/>
+      <c r="AN48" s="61"/>
+      <c r="AO48" s="61"/>
+      <c r="AP48" s="61"/>
+      <c r="AQ48" s="61"/>
+      <c r="AR48" s="61"/>
+      <c r="AS48" s="61"/>
+      <c r="AT48" s="61"/>
+      <c r="AU48" s="61"/>
+      <c r="AV48" s="61"/>
       <c r="AW48" s="56"/>
       <c r="AX48" s="56"/>
       <c r="AY48" s="56"/>
       <c r="AZ48" s="60"/>
-    </row>
-    <row r="49" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BB48" s="23"/>
+    </row>
+    <row r="49" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="str">
         <f>IF(L49="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6592,11 +6633,11 @@
       <c r="AB49" s="61"/>
       <c r="AC49" s="55"/>
       <c r="AD49" s="62"/>
-      <c r="AE49" s="61"/>
+      <c r="AE49" s="55"/>
       <c r="AF49" s="61"/>
       <c r="AG49" s="55"/>
-      <c r="AH49" s="61"/>
-      <c r="AI49" s="61"/>
+      <c r="AH49" s="62"/>
+      <c r="AI49" s="55"/>
       <c r="AJ49" s="61"/>
       <c r="AK49" s="61"/>
       <c r="AL49" s="61"/>
@@ -6616,7 +6657,7 @@
       <c r="AZ49" s="60"/>
       <c r="BB49" s="23"/>
     </row>
-    <row r="50" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="str">
         <f>IF(L50="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6650,11 +6691,11 @@
       <c r="AB50" s="61"/>
       <c r="AC50" s="55"/>
       <c r="AD50" s="62"/>
-      <c r="AE50" s="61"/>
+      <c r="AE50" s="55"/>
       <c r="AF50" s="61"/>
       <c r="AG50" s="55"/>
-      <c r="AH50" s="61"/>
-      <c r="AI50" s="61"/>
+      <c r="AH50" s="62"/>
+      <c r="AI50" s="55"/>
       <c r="AJ50" s="61"/>
       <c r="AK50" s="61"/>
       <c r="AL50" s="61"/>
@@ -6674,7 +6715,7 @@
       <c r="AZ50" s="60"/>
       <c r="BB50" s="23"/>
     </row>
-    <row r="51" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="str">
         <f>IF(L51="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6708,11 +6749,11 @@
       <c r="AB51" s="61"/>
       <c r="AC51" s="55"/>
       <c r="AD51" s="62"/>
-      <c r="AE51" s="61"/>
+      <c r="AE51" s="55"/>
       <c r="AF51" s="61"/>
       <c r="AG51" s="55"/>
-      <c r="AH51" s="61"/>
-      <c r="AI51" s="61"/>
+      <c r="AH51" s="62"/>
+      <c r="AI51" s="55"/>
       <c r="AJ51" s="61"/>
       <c r="AK51" s="61"/>
       <c r="AL51" s="61"/>
@@ -6732,7 +6773,7 @@
       <c r="AZ51" s="60"/>
       <c r="BB51" s="23"/>
     </row>
-    <row r="52" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="str">
         <f>IF(L52="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6766,11 +6807,11 @@
       <c r="AB52" s="61"/>
       <c r="AC52" s="55"/>
       <c r="AD52" s="62"/>
-      <c r="AE52" s="61"/>
+      <c r="AE52" s="55"/>
       <c r="AF52" s="61"/>
       <c r="AG52" s="55"/>
-      <c r="AH52" s="61"/>
-      <c r="AI52" s="61"/>
+      <c r="AH52" s="62"/>
+      <c r="AI52" s="55"/>
       <c r="AJ52" s="61"/>
       <c r="AK52" s="61"/>
       <c r="AL52" s="61"/>
@@ -6790,7 +6831,7 @@
       <c r="AZ52" s="60"/>
       <c r="BB52" s="23"/>
     </row>
-    <row r="53" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="37" t="str">
         <f>IF(L53="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6824,11 +6865,11 @@
       <c r="AB53" s="61"/>
       <c r="AC53" s="55"/>
       <c r="AD53" s="62"/>
-      <c r="AE53" s="61"/>
+      <c r="AE53" s="55"/>
       <c r="AF53" s="61"/>
       <c r="AG53" s="55"/>
-      <c r="AH53" s="61"/>
-      <c r="AI53" s="61"/>
+      <c r="AH53" s="62"/>
+      <c r="AI53" s="55"/>
       <c r="AJ53" s="61"/>
       <c r="AK53" s="61"/>
       <c r="AL53" s="61"/>
@@ -6848,7 +6889,7 @@
       <c r="AZ53" s="60"/>
       <c r="BB53" s="23"/>
     </row>
-    <row r="54" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="37" t="str">
         <f>IF(L54="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v/>
@@ -6882,11 +6923,11 @@
       <c r="AB54" s="61"/>
       <c r="AC54" s="55"/>
       <c r="AD54" s="62"/>
-      <c r="AE54" s="61"/>
+      <c r="AE54" s="55"/>
       <c r="AF54" s="61"/>
       <c r="AG54" s="55"/>
-      <c r="AH54" s="61"/>
-      <c r="AI54" s="61"/>
+      <c r="AH54" s="62"/>
+      <c r="AI54" s="55"/>
       <c r="AJ54" s="61"/>
       <c r="AK54" s="61"/>
       <c r="AL54" s="61"/>
@@ -6906,11 +6947,8 @@
       <c r="AZ54" s="60"/>
       <c r="BB54" s="23"/>
     </row>
-    <row r="55" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="37" t="str">
-        <f>IF(L55="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
-      </c>
+    <row r="55" spans="1:54" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="37"/>
       <c r="B55" s="55"/>
       <c r="C55" s="61"/>
       <c r="D55" s="61"/>
@@ -6940,11 +6978,11 @@
       <c r="AB55" s="61"/>
       <c r="AC55" s="55"/>
       <c r="AD55" s="62"/>
-      <c r="AE55" s="61"/>
+      <c r="AE55" s="55"/>
       <c r="AF55" s="61"/>
       <c r="AG55" s="55"/>
-      <c r="AH55" s="61"/>
-      <c r="AI55" s="61"/>
+      <c r="AH55" s="62"/>
+      <c r="AI55" s="55"/>
       <c r="AJ55" s="61"/>
       <c r="AK55" s="61"/>
       <c r="AL55" s="61"/>
@@ -6964,133 +7002,83 @@
       <c r="AZ55" s="60"/>
       <c r="BB55" s="23"/>
     </row>
-    <row r="56" spans="1:54" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="37"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61"/>
-      <c r="S56" s="61"/>
-      <c r="T56" s="61"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="61"/>
-      <c r="W56" s="61"/>
-      <c r="X56" s="61"/>
-      <c r="Y56" s="61"/>
-      <c r="Z56" s="61"/>
-      <c r="AA56" s="55"/>
-      <c r="AB56" s="61"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="62"/>
-      <c r="AE56" s="61"/>
-      <c r="AF56" s="61"/>
-      <c r="AG56" s="55"/>
-      <c r="AH56" s="61"/>
-      <c r="AI56" s="61"/>
-      <c r="AJ56" s="61"/>
-      <c r="AK56" s="61"/>
-      <c r="AL56" s="61"/>
-      <c r="AM56" s="61"/>
-      <c r="AN56" s="61"/>
-      <c r="AO56" s="61"/>
-      <c r="AP56" s="61"/>
-      <c r="AQ56" s="61"/>
-      <c r="AR56" s="61"/>
-      <c r="AS56" s="61"/>
-      <c r="AT56" s="61"/>
-      <c r="AU56" s="61"/>
-      <c r="AV56" s="61"/>
-      <c r="AW56" s="56"/>
-      <c r="AX56" s="56"/>
-      <c r="AY56" s="56"/>
-      <c r="AZ56" s="60"/>
+    <row r="56" spans="1:54" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" s="64"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="65"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="64"/>
+      <c r="U56" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="V56" s="64"/>
+      <c r="W56" s="64"/>
+      <c r="X56" s="64"/>
+      <c r="Y56" s="64"/>
+      <c r="Z56" s="64"/>
+      <c r="AA56" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB56" s="64"/>
+      <c r="AC56" s="63"/>
+      <c r="AD56" s="66"/>
+      <c r="AE56" s="63"/>
+      <c r="AF56" s="64"/>
+      <c r="AG56" s="63"/>
+      <c r="AH56" s="66"/>
+      <c r="AI56" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ56" s="64"/>
+      <c r="AK56" s="64"/>
+      <c r="AL56" s="64"/>
+      <c r="AM56" s="64"/>
+      <c r="AN56" s="64"/>
+      <c r="AO56" s="64"/>
+      <c r="AP56" s="64"/>
+      <c r="AQ56" s="64"/>
+      <c r="AR56" s="64"/>
+      <c r="AS56" s="64"/>
+      <c r="AT56" s="64"/>
+      <c r="AU56" s="64"/>
+      <c r="AV56" s="65"/>
+      <c r="AW56" s="65"/>
+      <c r="AX56" s="65"/>
+      <c r="AY56" s="65"/>
+      <c r="AZ56" s="67"/>
       <c r="BB56" s="23"/>
-    </row>
-    <row r="57" spans="1:54" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" s="64"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="65"/>
-      <c r="R57" s="65"/>
-      <c r="S57" s="65"/>
-      <c r="T57" s="64"/>
-      <c r="U57" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="V57" s="64"/>
-      <c r="W57" s="64"/>
-      <c r="X57" s="64"/>
-      <c r="Y57" s="64"/>
-      <c r="Z57" s="64"/>
-      <c r="AA57" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB57" s="64"/>
-      <c r="AC57" s="63"/>
-      <c r="AD57" s="66"/>
-      <c r="AE57" s="64"/>
-      <c r="AF57" s="64"/>
-      <c r="AG57" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH57" s="64"/>
-      <c r="AI57" s="65"/>
-      <c r="AJ57" s="64"/>
-      <c r="AK57" s="64"/>
-      <c r="AL57" s="64"/>
-      <c r="AM57" s="64"/>
-      <c r="AN57" s="64"/>
-      <c r="AO57" s="64"/>
-      <c r="AP57" s="64"/>
-      <c r="AQ57" s="64"/>
-      <c r="AR57" s="64"/>
-      <c r="AS57" s="64"/>
-      <c r="AT57" s="64"/>
-      <c r="AU57" s="64"/>
-      <c r="AV57" s="65"/>
-      <c r="AW57" s="65"/>
-      <c r="AX57" s="65"/>
-      <c r="AY57" s="65"/>
-      <c r="AZ57" s="67"/>
-      <c r="BB57" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -7103,15 +7091,10 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
@@ -7131,15 +7114,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="26" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" style="26" customWidth="1"/>
     <col min="2" max="2" width="14" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
@@ -7147,7 +7130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>19</v>
       </c>
@@ -7155,7 +7138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
@@ -7163,12 +7146,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
